--- a/baidu_history_xlsx/baidu_Virtual Boy.xlsx
+++ b/baidu_history_xlsx/baidu_Virtual Boy.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>邯郸市25中</t>
+  </si>
   <si>
     <t>黄忆凯22</t>
   </si>
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -496,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -518,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -540,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -551,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -573,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -584,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -628,6 +631,17 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
